--- a/ResultChecking.xlsx
+++ b/ResultChecking.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objet\OneDrive\Documentos\GitHub\trab3-tpa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB102A4F-B789-42D5-9ABF-E76BEBC4C95B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB69EC27-DA31-4B98-BEF6-BCE19AD91E0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{28ED81D4-297A-421F-A79A-49F98D3DD88C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{28ED81D4-297A-421F-A79A-49F98D3DD88C}"/>
   </bookViews>
   <sheets>
     <sheet name="uva12247" sheetId="1" r:id="rId1"/>
     <sheet name="uva10038" sheetId="2" r:id="rId2"/>
     <sheet name="uva11340" sheetId="3" r:id="rId3"/>
+    <sheet name="uva10920" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="154">
   <si>
     <t>11 17 4 16 39</t>
   </si>
@@ -408,6 +409,156 @@
   </si>
   <si>
     <t>3.74$</t>
+  </si>
+  <si>
+    <t>3 2</t>
+  </si>
+  <si>
+    <t>7 2</t>
+  </si>
+  <si>
+    <t>5 7</t>
+  </si>
+  <si>
+    <t>5 8</t>
+  </si>
+  <si>
+    <t>5 9</t>
+  </si>
+  <si>
+    <t>7 16</t>
+  </si>
+  <si>
+    <t>7 49</t>
+  </si>
+  <si>
+    <t>21 137</t>
+  </si>
+  <si>
+    <t>511 3215</t>
+  </si>
+  <si>
+    <t>1001 31415</t>
+  </si>
+  <si>
+    <t>1001 314159</t>
+  </si>
+  <si>
+    <t>999 987323</t>
+  </si>
+  <si>
+    <t>2465 1048576</t>
+  </si>
+  <si>
+    <t>5001 5000</t>
+  </si>
+  <si>
+    <t>5001 20000000</t>
+  </si>
+  <si>
+    <t>19999 12857152</t>
+  </si>
+  <si>
+    <t>50001 123123124</t>
+  </si>
+  <si>
+    <t>99999 1324859802</t>
+  </si>
+  <si>
+    <t>99999 100000000</t>
+  </si>
+  <si>
+    <t>99999 3521578</t>
+  </si>
+  <si>
+    <t>99999 16515</t>
+  </si>
+  <si>
+    <t>99999 1</t>
+  </si>
+  <si>
+    <t>99999 2</t>
+  </si>
+  <si>
+    <t>99999 9999800001</t>
+  </si>
+  <si>
+    <t>0 0</t>
+  </si>
+  <si>
+    <t>Line = 3, column = 2.</t>
+  </si>
+  <si>
+    <t>Line = 1, column = 1.</t>
+  </si>
+  <si>
+    <t>Line = 5, column = 4.</t>
+  </si>
+  <si>
+    <t>Line = 2, column = 4.</t>
+  </si>
+  <si>
+    <t>Line = 3, column = 4.</t>
+  </si>
+  <si>
+    <t>Line = 4, column = 4.</t>
+  </si>
+  <si>
+    <t>Line = 7, column = 7.</t>
+  </si>
+  <si>
+    <t>Line = 13, column = 5.</t>
+  </si>
+  <si>
+    <t>Line = 250, column = 284.</t>
+  </si>
+  <si>
+    <t>Line = 590, column = 504.</t>
+  </si>
+  <si>
+    <t>Line = 221, column = 779.</t>
+  </si>
+  <si>
+    <t>Line = 717, column = 3.</t>
+  </si>
+  <si>
+    <t>Line = 722, column = 721.</t>
+  </si>
+  <si>
+    <t>Line = 2495, column = 2536.</t>
+  </si>
+  <si>
+    <t>Line = 265, column = 1480.</t>
+  </si>
+  <si>
+    <t>Line = 10452, column = 8207.</t>
+  </si>
+  <si>
+    <t>Line = 19453, column = 21360.</t>
+  </si>
+  <si>
+    <t>Line = 40800, column = 68199.</t>
+  </si>
+  <si>
+    <t>Line = 45001, column = 45000.</t>
+  </si>
+  <si>
+    <t>Line = 49387, column = 50938.</t>
+  </si>
+  <si>
+    <t>Line = 49938, column = 50064.</t>
+  </si>
+  <si>
+    <t>Line = 50000, column = 50000.</t>
+  </si>
+  <si>
+    <t>Line = 50001, column = 50000.</t>
+  </si>
+  <si>
+    <t>Line = 99999, column = 99999.</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -463,37 +614,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -536,9 +670,36 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -861,7 +1022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFEC290-4BD2-419E-B2F8-D872EBBFA5FD}">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -1035,7 +1196,7 @@
         <f t="shared" si="0"/>
         <v>Correto</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -2112,12 +2273,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D82">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"Errado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D82">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Correto"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2128,10 +2289,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48574D96-E973-456D-A7AF-9B6EE93FA87B}">
-  <dimension ref="A1:U83"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2140,7 +2301,7 @@
     <col min="2" max="2" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -2152,25 +2313,10 @@
         <f>IF( B1 = C1, "Correto", "Errado")</f>
         <v>Errado</v>
       </c>
-      <c r="J1" s="1">
-        <v>1</v>
-      </c>
-      <c r="K1">
-        <v>2000</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q1">
-        <f>IF(K1-L1 &lt; 0, (K1-L1) *-1, K1-L1)</f>
-        <v>2000</v>
-      </c>
-      <c r="U1" t="e">
-        <f>IF(O1-P1 &lt; 0, (O1-P1) *-1, O1-P1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
@@ -2182,49 +2328,10 @@
         <f t="shared" ref="D2:D12" si="0">IF( B2 = C2, "Correto", "Errado")</f>
         <v>Errado</v>
       </c>
-      <c r="J2" s="1">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>4</v>
-      </c>
-      <c r="M2">
-        <v>2</v>
-      </c>
-      <c r="N2">
-        <v>-1</v>
-      </c>
-      <c r="O2">
-        <v>6</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q2">
-        <f>IF(K2-L2 &lt; 0, (K2-L2) *-1, K2-L2)</f>
-        <v>3</v>
-      </c>
-      <c r="R2">
-        <f>IF(L2-M2 &lt; 0, (L2-M2) *-1, L2-M2)</f>
-        <v>2</v>
-      </c>
-      <c r="S2">
-        <f>IF(M2-N2 &lt; 0, (M2-N2) *-1, M2-N2)</f>
-        <v>3</v>
-      </c>
-      <c r="T2">
-        <f>IF(N2-O2 &lt; 0, (N2-O2) *-1, N2-O2)</f>
-        <v>7</v>
-      </c>
-      <c r="U2" t="e">
-        <f>IF(O2-P2 &lt; 0, (O2-P2) *-1, O2-P2)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
@@ -2236,28 +2343,10 @@
         <f t="shared" si="0"/>
         <v>Errado</v>
       </c>
-      <c r="J3" s="1">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>1999</v>
-      </c>
-      <c r="L3">
-        <v>1998</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q3">
-        <f>IF(K3-L3 &lt; 0, (K3-L3) *-1, K3-L3)</f>
-        <v>1</v>
-      </c>
-      <c r="U3" t="e">
-        <f t="shared" ref="U3:U12" si="1">IF(O3-P3 &lt; 0, (O3-P3) *-1, O3-P3)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -2269,42 +2358,10 @@
         <f t="shared" si="0"/>
         <v>Errado</v>
       </c>
-      <c r="J4" s="1">
-        <v>4</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>4</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4">
-        <v>3</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q4">
-        <f>IF(K4-L4 &lt; 0, (K4-L4) *-1, K4-L4)</f>
-        <v>3</v>
-      </c>
-      <c r="R4">
-        <f>IF(L4-M4 &lt; 0, (L4-M4) *-1, L4-M4)</f>
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <f>IF(M4-N4 &lt; 0, (M4-N4) *-1, M4-N4)</f>
-        <v>1</v>
-      </c>
-      <c r="U4" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J4" s="1"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>87</v>
       </c>
@@ -2316,42 +2373,10 @@
         <f t="shared" si="0"/>
         <v>Errado</v>
       </c>
-      <c r="J5" s="1">
-        <v>4</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-      <c r="N5">
-        <v>-2</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" ref="Q3:Q12" si="2">IF(K5-L5 &lt; 0, (K5-L5) *-1, K5-L5)</f>
-        <v>2</v>
-      </c>
-      <c r="R5">
-        <f t="shared" ref="R3:R12" si="3">IF(L5-M5 &lt; 0, (L5-M5) *-1, L5-M5)</f>
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <f>IF(M5-N5 &lt; 0, (M5-N5) *-1, M5-N5)</f>
-        <v>4</v>
-      </c>
-      <c r="U5" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J5" s="1"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>88</v>
       </c>
@@ -2363,42 +2388,10 @@
         <f t="shared" si="0"/>
         <v>Errado</v>
       </c>
-      <c r="J6" s="1">
-        <v>4</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
-      <c r="N6">
-        <v>5</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <f t="shared" ref="S3:S12" si="4">IF(M6-N6 &lt; 0, (M6-N6) *-1, M6-N6)</f>
-        <v>2</v>
-      </c>
-      <c r="U6" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J6" s="1"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>89</v>
       </c>
@@ -2410,42 +2403,10 @@
         <f t="shared" si="0"/>
         <v>Errado</v>
       </c>
-      <c r="J7" s="1">
-        <v>4</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="N7">
-        <v>7</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="U7" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>90</v>
       </c>
@@ -2457,35 +2418,10 @@
         <f t="shared" si="0"/>
         <v>Errado</v>
       </c>
-      <c r="J8" s="1">
-        <v>3</v>
-      </c>
-      <c r="K8">
-        <v>4</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>3</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="U8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J8" s="1"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>86</v>
       </c>
@@ -2497,42 +2433,10 @@
         <f t="shared" si="0"/>
         <v>Errado</v>
       </c>
-      <c r="J9" s="1">
-        <v>4</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>4</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9">
-        <v>3</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U9" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>91</v>
       </c>
@@ -2544,42 +2448,10 @@
         <f t="shared" si="0"/>
         <v>Errado</v>
       </c>
-      <c r="J10" s="1">
-        <v>4</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>2</v>
-      </c>
-      <c r="M10">
-        <v>3</v>
-      </c>
-      <c r="N10">
-        <v>6</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="U10" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J10" s="1"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>92</v>
       </c>
@@ -2591,32 +2463,10 @@
         <f t="shared" si="0"/>
         <v>Errado</v>
       </c>
-      <c r="J11" s="1">
-        <v>2</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>3</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="U11" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J11" s="1"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>93</v>
       </c>
@@ -2628,43 +2478,28 @@
         <f t="shared" si="0"/>
         <v>Errado</v>
       </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="U12" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J12" s="1"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3074,17 +2909,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D13:D82">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"Errado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D12">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"Errado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D12">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Correto"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3107,68 +2942,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="6" t="str">
+      <c r="D1" s="4" t="str">
         <f>IF( B1 = C1, "Correto", "Errado")</f>
         <v>Correto</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="6" t="str">
+      <c r="D2" s="4" t="str">
         <f t="shared" ref="D2:D6" si="0">IF( B2 = C2, "Correto", "Errado")</f>
         <v>Correto</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="150" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="6" t="str">
+      <c r="D3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Correto</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="132" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="6" t="str">
+      <c r="D4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Correto</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="265.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="6" t="str">
+      <c r="D5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Correto</v>
       </c>
@@ -3177,55 +3012,474 @@
       <c r="A6" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="6" t="str">
+      <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Correto</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D7" s="6"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D8" s="6"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D9" s="6"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D10" s="6"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D11" s="6"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D12" s="6"/>
+      <c r="D12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A5"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D12">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"Errado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D6">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Errado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D6">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Correto"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F2D793-1205-416F-A9B0-AFF41E27F8F0}">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <f>IF( B1 = C1, "Correto", "Errado")</f>
+        <v>Correto</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f t="shared" ref="D2:D25" si="0">IF( B2 = C2, "Correto", "Errado")</f>
+        <v>Correto</v>
+      </c>
+      <c r="I2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Correto</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Correto</v>
+      </c>
+      <c r="I4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Correto</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Correto</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Correto</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Correto</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Correto</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Correto</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Correto</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Correto</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Correto</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Correto</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Correto</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Correto</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Correto</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Correto</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Correto</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Correto</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Correto</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Correto</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Correto</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Correto</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Correto</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f>IF( B26 = C26, "Correto", "Errado")</f>
+        <v>Correto</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D1:D26">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Errado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D26">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Correto"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/ResultChecking.xlsx
+++ b/ResultChecking.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objet\OneDrive\Documentos\GitHub\trab3-tpa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB69EC27-DA31-4B98-BEF6-BCE19AD91E0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6945AC36-B1A4-4C23-82E6-93CE3A82D394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{28ED81D4-297A-421F-A79A-49F98D3DD88C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{28ED81D4-297A-421F-A79A-49F98D3DD88C}"/>
   </bookViews>
   <sheets>
     <sheet name="uva12247" sheetId="1" r:id="rId1"/>
     <sheet name="uva10038" sheetId="2" r:id="rId2"/>
     <sheet name="uva11340" sheetId="3" r:id="rId3"/>
     <sheet name="uva10920" sheetId="4" r:id="rId4"/>
+    <sheet name="uva11581" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="162">
   <si>
     <t>11 17 4 16 39</t>
   </si>
@@ -558,7 +559,47 @@
     <t>Line = 99999, column = 99999.</t>
   </si>
   <si>
-    <t>s</t>
+    <t>111
+110
+000</t>
+  </si>
+  <si>
+    <t>000
+000
+000</t>
+  </si>
+  <si>
+    <t>110
+000
+000</t>
+  </si>
+  <si>
+    <t>110
+001
+101</t>
+  </si>
+  <si>
+    <t>101
+010
+101</t>
+  </si>
+  <si>
+    <t>111
+000
+111</t>
+  </si>
+  <si>
+    <t>101
+000
+101</t>
+  </si>
+  <si>
+    <t>111
+111
+111</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -602,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -623,11 +664,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2273,12 +2334,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D82">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"Errado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D82">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Correto"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2292,7 +2353,7 @@
   <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2909,17 +2970,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D13:D82">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Errado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D12">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"Errado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D12">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"Correto"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3046,17 +3107,17 @@
     <mergeCell ref="A1:A5"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D12">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"Errado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D6">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"Errado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D6">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Correto"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3067,10 +3128,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F2D793-1205-416F-A9B0-AFF41E27F8F0}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3079,7 +3140,7 @@
     <col min="2" max="3" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>104</v>
       </c>
@@ -3094,7 +3155,7 @@
         <v>Correto</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
@@ -3108,11 +3169,8 @@
         <f t="shared" ref="D2:D25" si="0">IF( B2 = C2, "Correto", "Errado")</f>
         <v>Correto</v>
       </c>
-      <c r="I2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>105</v>
       </c>
@@ -3127,7 +3185,7 @@
         <v>Correto</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>106</v>
       </c>
@@ -3141,11 +3199,8 @@
         <f t="shared" si="0"/>
         <v>Correto</v>
       </c>
-      <c r="I4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>107</v>
       </c>
@@ -3160,7 +3215,7 @@
         <v>Correto</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>108</v>
       </c>
@@ -3175,7 +3230,7 @@
         <v>Correto</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>109</v>
       </c>
@@ -3190,7 +3245,7 @@
         <v>Correto</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>110</v>
       </c>
@@ -3205,7 +3260,7 @@
         <v>Correto</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>111</v>
       </c>
@@ -3220,7 +3275,7 @@
         <v>Correto</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>112</v>
       </c>
@@ -3235,7 +3290,7 @@
         <v>Correto</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>113</v>
       </c>
@@ -3250,7 +3305,7 @@
         <v>Correto</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>114</v>
       </c>
@@ -3265,7 +3320,7 @@
         <v>Correto</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>115</v>
       </c>
@@ -3280,7 +3335,7 @@
         <v>Correto</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>116</v>
       </c>
@@ -3295,7 +3350,7 @@
         <v>Correto</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>117</v>
       </c>
@@ -3310,7 +3365,7 @@
         <v>Correto</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>118</v>
       </c>
@@ -3471,11 +3526,156 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D26">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"Errado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D26">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Correto"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDDD142-907A-4EA3-AC05-B780A770D196}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="4" t="str">
+        <f>IF( B1 = C1, "Correto", "Errado")</f>
+        <v>Errado</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f t="shared" ref="D2:D8" si="0">IF( B2 = C2, "Correto", "Errado")</f>
+        <v>Errado</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Errado</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Errado</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Errado</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Errado</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Errado</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f>IF( B8 = C8, "Correto", "Errado")</f>
+        <v>Errado</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D1:D8">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Errado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D26">
+  <conditionalFormatting sqref="D1:D8">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Correto"</formula>
     </cfRule>
